--- a/Inputs/Planeación - Armonización de Encuestas de Hogares.xlsx
+++ b/Inputs/Planeación - Armonización de Encuestas de Hogares.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idbg-my.sharepoint.com/personal/linaa_iadb_org/Documents/Documents/GitHub/calculo_indicators_R/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idbg-my.sharepoint.com/personal/dcor_iadb_org/Documents/Documents/GitHub/calculo_indicators_R/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2893" documentId="13_ncr:1_{8AF7F83F-6557-4E4A-89D0-13E0BF5AF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E74412AC-191B-4CBE-A0D4-05D1D7C090A4}"/>
+  <xr:revisionPtr revIDLastSave="2920" documentId="13_ncr:1_{8AF7F83F-6557-4E4A-89D0-13E0BF5AF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A44597-22A4-4F83-821C-B1BF7F2A35BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encuestas Armonizadas" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="14" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId3"/>
     <sheet name="HH surveys" sheetId="10" r:id="rId4"/>
-    <sheet name="Detalle Encuestas" sheetId="4" r:id="rId5"/>
-    <sheet name="Conteo" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="2020" sheetId="7" r:id="rId7"/>
+    <sheet name="2020" sheetId="7" r:id="rId5"/>
+    <sheet name="Detalle Encuestas" sheetId="4" r:id="rId6"/>
+    <sheet name="Conteo" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2020'!$A$3:$AG$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2020'!$A$3:$AG$14</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="506">
   <si>
     <t>Harmonized Household Survey Databases of LAC</t>
   </si>
@@ -2595,10 +2595,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2611,6 +2611,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2671,45 +2710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5272,8 +5272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{227E27DD-A399-428B-89D5-9E5CE9864EEC}" name="Table13" displayName="Table13" ref="A1:AN88" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:AN88" xr:uid="{227E27DD-A399-428B-89D5-9E5CE9864EEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{227E27DD-A399-428B-89D5-9E5CE9864EEC}" name="Table13" displayName="Table13" ref="A1:AN89" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:AN89" xr:uid="{227E27DD-A399-428B-89D5-9E5CE9864EEC}"/>
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{6B064E87-3A0D-4584-8192-35267E66F273}" name="País" dataDxfId="39" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{56390F1F-7512-4FEB-8AF3-898CDB1A9830}" name="Encuesta" dataDxfId="38"/>
@@ -5323,9 +5323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5363,9 +5363,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5398,26 +5398,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5450,26 +5433,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5660,21 +5626,21 @@
       <selection pane="bottomRight" activeCell="AR42" sqref="AR42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="52" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="55" customWidth="1"/>
     <col min="4" max="4" width="11" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="39" width="4.28515625" style="52" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" style="52" customWidth="1"/>
-    <col min="41" max="41" width="17.7109375" style="52" customWidth="1"/>
-    <col min="42" max="42" width="14.42578125" style="52" customWidth="1"/>
+    <col min="5" max="39" width="4.26953125" style="52" customWidth="1"/>
+    <col min="40" max="40" width="12.26953125" style="52" customWidth="1"/>
+    <col min="41" max="41" width="17.7265625" style="52" customWidth="1"/>
+    <col min="42" max="42" width="14.453125" style="52" customWidth="1"/>
     <col min="43" max="45" width="9" style="53"/>
     <col min="46" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="191" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5715,7 @@
       <c r="BV1" s="54"/>
       <c r="BW1" s="54"/>
     </row>
-    <row r="2" spans="1:75" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>1</v>
       </c>
@@ -5877,7 +5843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="145" t="b">
         <v>1</v>
       </c>
@@ -5973,9 +5939,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="145"/>
-      <c r="B4" s="188"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="57" t="s">
         <v>14</v>
       </c>
@@ -6043,7 +6009,7 @@
       <c r="AO4" s="40"/>
       <c r="AP4" s="76"/>
     </row>
-    <row r="5" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="145" t="b">
         <v>1</v>
       </c>
@@ -6125,7 +6091,7 @@
       </c>
       <c r="AP5" s="76"/>
     </row>
-    <row r="6" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="145" t="b">
         <v>1</v>
       </c>
@@ -6207,7 +6173,7 @@
       </c>
       <c r="AP6" s="79"/>
     </row>
-    <row r="7" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="145" t="b">
         <v>1</v>
       </c>
@@ -6305,7 +6271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="145"/>
       <c r="B8" s="189"/>
       <c r="C8" s="57" t="s">
@@ -6363,7 +6329,7 @@
       <c r="AO8" s="40"/>
       <c r="AP8" s="76"/>
     </row>
-    <row r="9" spans="1:75" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="145"/>
       <c r="B9" s="189"/>
       <c r="C9" s="57" t="s">
@@ -6413,7 +6379,7 @@
       <c r="AO9" s="40"/>
       <c r="AP9" s="76"/>
     </row>
-    <row r="10" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="145"/>
       <c r="B10" s="189" t="s">
         <v>28</v>
@@ -6505,7 +6471,7 @@
       <c r="AO10" s="80"/>
       <c r="AP10" s="79"/>
     </row>
-    <row r="11" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="145" t="b">
         <v>1</v>
       </c>
@@ -6573,7 +6539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:75" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="145" t="b">
         <v>1</v>
       </c>
@@ -6657,7 +6623,7 @@
       </c>
       <c r="AP12" s="79"/>
     </row>
-    <row r="13" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="145" t="b">
         <v>1</v>
       </c>
@@ -6743,7 +6709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="145"/>
       <c r="B14" s="186" t="s">
         <v>38</v>
@@ -6801,9 +6767,9 @@
       <c r="AO14" s="40"/>
       <c r="AP14" s="76"/>
     </row>
-    <row r="15" spans="1:75" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="145"/>
-      <c r="B15" s="187"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="39" t="s">
         <v>39</v>
       </c>
@@ -6849,9 +6815,9 @@
       <c r="AO15" s="40"/>
       <c r="AP15" s="76"/>
     </row>
-    <row r="16" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="145"/>
-      <c r="B16" s="187"/>
+      <c r="B16" s="188"/>
       <c r="C16" s="39" t="s">
         <v>40</v>
       </c>
@@ -6919,11 +6885,11 @@
       <c r="AO16" s="40"/>
       <c r="AP16" s="76"/>
     </row>
-    <row r="17" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="188"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="39" t="s">
         <v>41</v>
       </c>
@@ -7007,7 +6973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="145"/>
       <c r="B18" s="186" t="s">
         <v>43</v>
@@ -7095,11 +7061,11 @@
       <c r="AO18" s="40"/>
       <c r="AP18" s="76"/>
     </row>
-    <row r="19" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="B19" s="188"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="57" t="s">
         <v>45</v>
       </c>
@@ -7175,7 +7141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="145"/>
       <c r="B20" s="186" t="s">
         <v>48</v>
@@ -7263,11 +7229,11 @@
       <c r="AO20" s="80"/>
       <c r="AP20" s="79"/>
     </row>
-    <row r="21" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="188"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="57" t="s">
         <v>50</v>
       </c>
@@ -7327,7 +7293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="145" t="b">
         <v>1</v>
       </c>
@@ -7449,7 +7415,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="145"/>
       <c r="B23" s="189"/>
       <c r="C23" s="57" t="s">
@@ -7503,7 +7469,7 @@
       <c r="AO23" s="80"/>
       <c r="AP23" s="79"/>
     </row>
-    <row r="24" spans="1:42" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="145"/>
       <c r="B24" s="189" t="s">
         <v>58</v>
@@ -7557,7 +7523,7 @@
       <c r="AO24" s="40"/>
       <c r="AP24" s="76"/>
     </row>
-    <row r="25" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="145" t="b">
         <v>1</v>
       </c>
@@ -7641,7 +7607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" ht="12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="145"/>
       <c r="B26" s="189"/>
       <c r="C26" s="57" t="s">
@@ -7689,7 +7655,7 @@
       <c r="AO26" s="40"/>
       <c r="AP26" s="76"/>
     </row>
-    <row r="27" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="145" t="b">
         <v>1</v>
       </c>
@@ -7809,7 +7775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" ht="10.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="145" t="b">
         <v>1</v>
       </c>
@@ -7915,9 +7881,9 @@
       </c>
       <c r="AP28" s="76"/>
     </row>
-    <row r="29" spans="1:42" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="145"/>
-      <c r="B29" s="188"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="57" t="s">
         <v>67</v>
       </c>
@@ -7979,7 +7945,7 @@
       <c r="AO29" s="40"/>
       <c r="AP29" s="76"/>
     </row>
-    <row r="30" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="145" t="b">
         <v>1</v>
       </c>
@@ -8069,7 +8035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="145"/>
       <c r="B31" s="186" t="s">
         <v>73</v>
@@ -8123,11 +8089,11 @@
       <c r="AO31" s="40"/>
       <c r="AP31" s="76"/>
     </row>
-    <row r="32" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="B32" s="188"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="57" t="s">
         <v>74</v>
       </c>
@@ -8191,7 +8157,7 @@
       </c>
       <c r="AP32" s="76"/>
     </row>
-    <row r="33" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="145"/>
       <c r="B33" s="186" t="s">
         <v>76</v>
@@ -8273,11 +8239,11 @@
       <c r="AO33" s="40"/>
       <c r="AP33" s="76"/>
     </row>
-    <row r="34" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="188"/>
+      <c r="B34" s="187"/>
       <c r="C34" s="57" t="s">
         <v>44</v>
       </c>
@@ -8349,7 +8315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="145"/>
       <c r="B35" s="186" t="s">
         <v>79</v>
@@ -8413,9 +8379,9 @@
       </c>
       <c r="AP35" s="76"/>
     </row>
-    <row r="36" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="145"/>
-      <c r="B36" s="187"/>
+      <c r="B36" s="188"/>
       <c r="C36" s="57" t="s">
         <v>26</v>
       </c>
@@ -8465,9 +8431,9 @@
       </c>
       <c r="AP36" s="76"/>
     </row>
-    <row r="37" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="145"/>
-      <c r="B37" s="187"/>
+      <c r="B37" s="188"/>
       <c r="C37" s="57" t="s">
         <v>82</v>
       </c>
@@ -8547,11 +8513,11 @@
       </c>
       <c r="AP37" s="79"/>
     </row>
-    <row r="38" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="188"/>
+      <c r="B38" s="187"/>
       <c r="C38" s="57" t="s">
         <v>9</v>
       </c>
@@ -8611,7 +8577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="145" t="b">
         <v>1</v>
       </c>
@@ -8719,9 +8685,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="145"/>
-      <c r="B40" s="188"/>
+      <c r="B40" s="187"/>
       <c r="C40" s="57" t="s">
         <v>84</v>
       </c>
@@ -8775,7 +8741,7 @@
       </c>
       <c r="AP40" s="79"/>
     </row>
-    <row r="41" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="145" t="b">
         <v>1</v>
       </c>
@@ -8887,7 +8853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="145" t="b">
         <v>1</v>
       </c>
@@ -9009,7 +8975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="145"/>
       <c r="B43" s="186" t="s">
         <v>87</v>
@@ -9109,11 +9075,11 @@
       <c r="AO43" s="80"/>
       <c r="AP43" s="79"/>
     </row>
-    <row r="44" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="188"/>
+      <c r="B44" s="187"/>
       <c r="C44" s="41" t="s">
         <v>59</v>
       </c>
@@ -9181,7 +9147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="145"/>
       <c r="B45" s="86" t="s">
         <v>88</v>
@@ -9227,7 +9193,7 @@
       <c r="AO45" s="40"/>
       <c r="AP45" s="76"/>
     </row>
-    <row r="46" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="145"/>
       <c r="B46" s="86" t="s">
         <v>89</v>
@@ -9273,7 +9239,7 @@
       <c r="AO46" s="40"/>
       <c r="AP46" s="76"/>
     </row>
-    <row r="47" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="55" t="s">
         <v>90</v>
       </c>
@@ -9419,7 +9385,7 @@
       </c>
       <c r="AP47" s="1"/>
     </row>
-    <row r="48" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="55" t="s">
         <v>91</v>
       </c>
@@ -9564,7 +9530,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="49" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE49" s="156" t="s">
         <v>92</v>
       </c>
@@ -9586,7 +9552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK51" s="149">
         <v>1</v>
       </c>
@@ -9594,7 +9560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK52" s="77">
         <v>1</v>
       </c>
@@ -9604,7 +9570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK53" s="82">
         <v>1</v>
       </c>
@@ -9614,7 +9580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK54" s="78">
         <v>1</v>
       </c>
@@ -9624,7 +9590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="190" t="s">
         <v>97</v>
       </c>
@@ -9663,7 +9629,7 @@
       <c r="AJ58" s="190"/>
       <c r="AK58" s="190"/>
     </row>
-    <row r="59" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="147" t="s">
         <v>98</v>
       </c>
@@ -9702,7 +9668,7 @@
       <c r="AJ59" s="146"/>
       <c r="AK59" s="146"/>
     </row>
-    <row r="60" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="147" t="s">
         <v>99</v>
       </c>
@@ -9741,7 +9707,7 @@
       <c r="AJ60" s="146"/>
       <c r="AK60" s="146"/>
     </row>
-    <row r="61" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="147" t="s">
         <v>100</v>
       </c>
@@ -9782,12 +9748,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C58:AK58"/>
     <mergeCell ref="B1:AK1"/>
     <mergeCell ref="Q36:R36"/>
     <mergeCell ref="B39:B40"/>
@@ -9800,6 +9760,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C58:AK58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -9810,17 +9776,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B92816-9A9B-481E-B050-65BD5C8E1CB2}">
   <dimension ref="A3:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="172" t="s">
         <v>461</v>
       </c>
@@ -9885,7 +9851,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="104" t="s">
         <v>484</v>
       </c>
@@ -9954,7 +9920,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="173" t="s">
         <v>15</v>
       </c>
@@ -9992,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="173" t="s">
         <v>22</v>
       </c>
@@ -10048,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="173" t="s">
         <v>32</v>
       </c>
@@ -10092,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="173" t="s">
         <v>48</v>
       </c>
@@ -10154,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="173" t="s">
         <v>58</v>
       </c>
@@ -10204,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="173" t="s">
         <v>63</v>
       </c>
@@ -10260,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="173" t="s">
         <v>65</v>
       </c>
@@ -10307,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="173" t="s">
         <v>73</v>
       </c>
@@ -10330,7 +10296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="173" t="s">
         <v>83</v>
       </c>
@@ -10392,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="173" t="s">
         <v>85</v>
       </c>
@@ -10457,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="173" t="s">
         <v>88</v>
       </c>
@@ -10501,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="173" t="s">
         <v>87</v>
       </c>
@@ -10560,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="104" t="s">
         <v>483</v>
       </c>
@@ -10629,7 +10595,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="173" t="s">
         <v>8</v>
       </c>
@@ -10698,7 +10664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="173" t="s">
         <v>20</v>
       </c>
@@ -10719,7 +10685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="173" t="s">
         <v>28</v>
       </c>
@@ -10785,7 +10751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="173" t="s">
         <v>34</v>
       </c>
@@ -10818,7 +10784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="173" t="s">
         <v>38</v>
       </c>
@@ -10884,7 +10850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="173" t="s">
         <v>43</v>
       </c>
@@ -10953,7 +10919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="173" t="s">
         <v>53</v>
       </c>
@@ -11022,7 +10988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="173" t="s">
         <v>170</v>
       </c>
@@ -11043,7 +11009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="173" t="s">
         <v>154</v>
       </c>
@@ -11055,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="173" t="s">
         <v>68</v>
       </c>
@@ -11094,7 +11060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="173" t="s">
         <v>76</v>
       </c>
@@ -11157,7 +11123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="173" t="s">
         <v>79</v>
       </c>
@@ -11223,7 +11189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="173" t="s">
         <v>89</v>
       </c>
@@ -11235,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="173" t="s">
         <v>86</v>
       </c>
@@ -11304,7 +11270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="104" t="s">
         <v>478</v>
       </c>
@@ -11382,9 +11348,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>461</v>
       </c>
@@ -11449,7 +11415,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -11490,7 +11456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>484</v>
       </c>
@@ -11549,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>484</v>
       </c>
@@ -11596,7 +11562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>484</v>
       </c>
@@ -11661,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>484</v>
       </c>
@@ -11714,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>484</v>
       </c>
@@ -11773,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -11823,7 +11789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>484</v>
       </c>
@@ -11849,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>484</v>
       </c>
@@ -11914,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -11982,7 +11948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>484</v>
       </c>
@@ -12029,7 +11995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>484</v>
       </c>
@@ -12091,7 +12057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>483</v>
       </c>
@@ -12159,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>483</v>
       </c>
@@ -12179,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>483</v>
       </c>
@@ -12244,7 +12210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>483</v>
       </c>
@@ -12276,7 +12242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>483</v>
       </c>
@@ -12341,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>483</v>
       </c>
@@ -12409,7 +12375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>483</v>
       </c>
@@ -12477,7 +12443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>483</v>
       </c>
@@ -12497,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>483</v>
       </c>
@@ -12508,7 +12474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>483</v>
       </c>
@@ -12546,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>483</v>
       </c>
@@ -12608,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>483</v>
       </c>
@@ -12673,7 +12639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>483</v>
       </c>
@@ -12684,7 +12650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>483</v>
       </c>
@@ -12763,24 +12729,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC0F423-732A-4BB5-B708-202F80FAD9CB}">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection activeCell="B14" sqref="B14"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12" style="100" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="100" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="38" width="8.140625" style="100" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="100" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="100" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="38" width="8.1796875" style="100" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1796875" style="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="174" t="s">
         <v>2</v>
       </c>
@@ -12902,7 +12868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" s="157" t="s">
         <v>8</v>
       </c>
@@ -12975,7 +12941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="157" t="s">
         <v>8</v>
       </c>
@@ -13066,7 +13032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="157" t="s">
         <v>8</v>
       </c>
@@ -13121,7 +13087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="157" t="s">
         <v>15</v>
       </c>
@@ -13178,9 +13144,7 @@
       <c r="AB5" s="80">
         <v>1</v>
       </c>
-      <c r="AC5" s="80">
-        <v>1</v>
-      </c>
+      <c r="AC5" s="80"/>
       <c r="AD5" s="40">
         <v>1</v>
       </c>
@@ -13197,10 +13161,10 @@
       <c r="AM5" s="159"/>
       <c r="AN5" s="158">
         <f>SUM(Table13[[#This Row],[1986]:[2021]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="157" t="s">
         <v>20</v>
       </c>
@@ -13257,17 +13221,19 @@
       <c r="AF6" s="80"/>
       <c r="AG6" s="40"/>
       <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
+      <c r="AI6" s="40">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="40"/>
       <c r="AK6" s="40"/>
       <c r="AL6" s="159"/>
       <c r="AM6" s="171"/>
       <c r="AN6" s="160">
         <f>SUM(Table13[[#This Row],[1986]:[2021]])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="157" t="s">
         <v>20</v>
       </c>
@@ -13330,7 +13296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="157" t="s">
         <v>20</v>
       </c>
@@ -13385,7 +13351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="157" t="s">
         <v>22</v>
       </c>
@@ -13444,7 +13410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="157" t="s">
         <v>22</v>
       </c>
@@ -13497,7 +13463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="157" t="s">
         <v>22</v>
       </c>
@@ -13550,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="157" t="s">
         <v>22</v>
       </c>
@@ -13603,7 +13569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="157" t="s">
         <v>22</v>
       </c>
@@ -13656,7 +13622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="157" t="s">
         <v>22</v>
       </c>
@@ -13731,7 +13697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="157" t="s">
         <v>22</v>
       </c>
@@ -13800,7 +13766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="157" t="s">
         <v>28</v>
       </c>
@@ -13897,7 +13863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="157" t="s">
         <v>28</v>
       </c>
@@ -13964,7 +13930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="157" t="s">
         <v>32</v>
       </c>
@@ -14043,7 +14009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="157" t="s">
         <v>32</v>
       </c>
@@ -14098,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="157" t="s">
         <v>34</v>
       </c>
@@ -14167,7 +14133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="157" t="s">
         <v>34</v>
       </c>
@@ -14228,7 +14194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="157" t="s">
         <v>38</v>
       </c>
@@ -14303,7 +14269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="157" t="s">
         <v>38</v>
       </c>
@@ -14366,7 +14332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="157" t="s">
         <v>38</v>
       </c>
@@ -14449,7 +14415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="157" t="s">
         <v>38</v>
       </c>
@@ -14504,7 +14470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="157" t="s">
         <v>43</v>
       </c>
@@ -14597,7 +14563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="157" t="s">
         <v>43</v>
       </c>
@@ -14676,7 +14642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="157" t="s">
         <v>48</v>
       </c>
@@ -14731,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="157" t="s">
         <v>48</v>
       </c>
@@ -14786,7 +14752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="157" t="s">
         <v>48</v>
       </c>
@@ -14841,7 +14807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="157" t="s">
         <v>48</v>
       </c>
@@ -14928,7 +14894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="157" t="s">
         <v>48</v>
       </c>
@@ -14991,7 +14957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="157" t="s">
         <v>53</v>
       </c>
@@ -15066,7 +15032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="157" t="s">
         <v>53</v>
       </c>
@@ -15159,7 +15125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="157" t="s">
         <v>58</v>
       </c>
@@ -15214,7 +15180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="157" t="s">
         <v>58</v>
       </c>
@@ -15267,7 +15233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="157" t="s">
         <v>58</v>
       </c>
@@ -15320,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="157" t="s">
         <v>58</v>
       </c>
@@ -15373,7 +15339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="157" t="s">
         <v>58</v>
       </c>
@@ -15438,7 +15404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="181" t="s">
         <v>58</v>
       </c>
@@ -15491,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="157" t="s">
         <v>58</v>
       </c>
@@ -15546,7 +15512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="157" t="s">
         <v>58</v>
       </c>
@@ -15601,7 +15567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="157" t="s">
         <v>63</v>
       </c>
@@ -15678,7 +15644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="157" t="s">
         <v>63</v>
       </c>
@@ -15733,7 +15699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45" s="157" t="s">
         <v>63</v>
       </c>
@@ -15792,7 +15758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="157" t="s">
         <v>63</v>
       </c>
@@ -15855,7 +15821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="157" t="s">
         <v>63</v>
       </c>
@@ -15918,7 +15884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="157" t="s">
         <v>154</v>
       </c>
@@ -15971,7 +15937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="157" t="s">
         <v>65</v>
       </c>
@@ -16028,7 +15994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="157" t="s">
         <v>65</v>
       </c>
@@ -16123,7 +16089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="157" t="s">
         <v>65</v>
       </c>
@@ -16184,7 +16150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="157" t="s">
         <v>68</v>
       </c>
@@ -16247,7 +16213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="157" t="s">
         <v>68</v>
       </c>
@@ -16300,7 +16266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="157" t="s">
         <v>68</v>
       </c>
@@ -16353,7 +16319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="157" t="s">
         <v>68</v>
       </c>
@@ -16420,7 +16386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="157" t="s">
         <v>73</v>
       </c>
@@ -16481,7 +16447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="157" t="s">
         <v>73</v>
       </c>
@@ -16538,7 +16504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="157" t="s">
         <v>73</v>
       </c>
@@ -16597,7 +16563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="157" t="s">
         <v>73</v>
       </c>
@@ -16652,7 +16618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60" s="157" t="s">
         <v>76</v>
       </c>
@@ -16739,7 +16705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A61" s="157" t="s">
         <v>76</v>
       </c>
@@ -16812,7 +16778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62" s="157" t="s">
         <v>79</v>
       </c>
@@ -16865,7 +16831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" s="157" t="s">
         <v>79</v>
       </c>
@@ -16918,7 +16884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="157" t="s">
         <v>79</v>
       </c>
@@ -16971,7 +16937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="157" t="s">
         <v>79</v>
       </c>
@@ -17024,7 +16990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A66" s="157" t="s">
         <v>79</v>
       </c>
@@ -17077,7 +17043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="157" t="s">
         <v>79</v>
       </c>
@@ -17130,7 +17096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="157" t="s">
         <v>79</v>
       </c>
@@ -17183,7 +17149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="157" t="s">
         <v>79</v>
       </c>
@@ -17236,7 +17202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="157" t="s">
         <v>79</v>
       </c>
@@ -17289,7 +17255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="157" t="s">
         <v>79</v>
       </c>
@@ -17344,7 +17310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="157" t="s">
         <v>79</v>
       </c>
@@ -17399,7 +17365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="157" t="s">
         <v>79</v>
       </c>
@@ -17452,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="157" t="s">
         <v>79</v>
       </c>
@@ -17527,7 +17493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75" s="157" t="s">
         <v>79</v>
       </c>
@@ -17586,7 +17552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="157" t="s">
         <v>83</v>
       </c>
@@ -17641,7 +17607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="157" t="s">
         <v>83</v>
       </c>
@@ -17704,7 +17670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="157" t="s">
         <v>83</v>
       </c>
@@ -17793,7 +17759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A79" s="157" t="s">
         <v>85</v>
       </c>
@@ -17900,7 +17866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="157" t="s">
         <v>86</v>
       </c>
@@ -17963,7 +17929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="157" t="s">
         <v>86</v>
       </c>
@@ -18068,7 +18034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="157" t="s">
         <v>87</v>
       </c>
@@ -18171,7 +18137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A83" s="157" t="s">
         <v>87</v>
       </c>
@@ -18232,7 +18198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="157" t="s">
         <v>88</v>
       </c>
@@ -18319,7 +18285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="164" t="s">
         <v>89</v>
       </c>
@@ -18374,66 +18340,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="164" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="B86" s="57" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C86" s="163" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86" s="163" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" s="165"/>
-      <c r="F86" s="165"/>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
-      <c r="I86" s="165"/>
-      <c r="J86" s="165"/>
-      <c r="K86" s="165"/>
-      <c r="L86" s="165"/>
-      <c r="M86" s="165"/>
-      <c r="N86" s="165"/>
-      <c r="O86" s="165"/>
-      <c r="P86" s="165"/>
-      <c r="Q86" s="165"/>
-      <c r="R86" s="165"/>
-      <c r="S86" s="165"/>
-      <c r="T86" s="165"/>
-      <c r="U86" s="165"/>
-      <c r="V86" s="165"/>
-      <c r="W86" s="165"/>
-      <c r="X86" s="165"/>
-      <c r="Y86" s="165"/>
-      <c r="Z86" s="165"/>
-      <c r="AA86" s="165"/>
-      <c r="AB86" s="165"/>
-      <c r="AC86" s="165"/>
-      <c r="AD86" s="165"/>
-      <c r="AE86" s="166"/>
-      <c r="AF86" s="166"/>
-      <c r="AG86" s="165"/>
-      <c r="AH86" s="165">
-        <v>1</v>
-      </c>
-      <c r="AI86" s="165">
-        <v>1</v>
-      </c>
-      <c r="AJ86" s="165">
-        <v>1</v>
-      </c>
-      <c r="AK86" s="165"/>
-      <c r="AL86" s="163"/>
-      <c r="AM86" s="171"/>
+        <v>140</v>
+      </c>
+      <c r="D86" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
+      <c r="AA86" s="40"/>
+      <c r="AB86" s="40"/>
+      <c r="AC86" s="40"/>
+      <c r="AD86" s="40"/>
+      <c r="AE86" s="80"/>
+      <c r="AF86" s="80"/>
+      <c r="AG86" s="40"/>
+      <c r="AH86" s="40"/>
+      <c r="AI86" s="40"/>
+      <c r="AJ86" s="40"/>
+      <c r="AK86" s="40"/>
+      <c r="AL86" s="159"/>
+      <c r="AM86" s="171">
+        <v>1</v>
+      </c>
       <c r="AN86" s="160">
         <f>SUM(Table13[[#This Row],[1986]:[2021]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="164" t="s">
         <v>170</v>
       </c>
@@ -18444,198 +18406,257 @@
         <v>138</v>
       </c>
       <c r="D87" s="163" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="40"/>
-      <c r="Z87" s="40"/>
-      <c r="AA87" s="40"/>
-      <c r="AB87" s="40"/>
-      <c r="AC87" s="40"/>
-      <c r="AD87" s="40"/>
-      <c r="AE87" s="80"/>
-      <c r="AF87" s="80"/>
-      <c r="AG87" s="40"/>
-      <c r="AH87" s="40"/>
-      <c r="AI87" s="40"/>
-      <c r="AJ87" s="40"/>
-      <c r="AK87" s="40"/>
-      <c r="AL87" s="159">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E87" s="165"/>
+      <c r="F87" s="165"/>
+      <c r="G87" s="165"/>
+      <c r="H87" s="165"/>
+      <c r="I87" s="165"/>
+      <c r="J87" s="165"/>
+      <c r="K87" s="165"/>
+      <c r="L87" s="165"/>
+      <c r="M87" s="165"/>
+      <c r="N87" s="165"/>
+      <c r="O87" s="165"/>
+      <c r="P87" s="165"/>
+      <c r="Q87" s="165"/>
+      <c r="R87" s="165"/>
+      <c r="S87" s="165"/>
+      <c r="T87" s="165"/>
+      <c r="U87" s="165"/>
+      <c r="V87" s="165"/>
+      <c r="W87" s="165"/>
+      <c r="X87" s="165"/>
+      <c r="Y87" s="165"/>
+      <c r="Z87" s="165"/>
+      <c r="AA87" s="165"/>
+      <c r="AB87" s="165"/>
+      <c r="AC87" s="165"/>
+      <c r="AD87" s="165"/>
+      <c r="AE87" s="166"/>
+      <c r="AF87" s="166"/>
+      <c r="AG87" s="165"/>
+      <c r="AH87" s="165">
+        <v>1</v>
+      </c>
+      <c r="AI87" s="165">
+        <v>1</v>
+      </c>
+      <c r="AJ87" s="165">
+        <v>1</v>
+      </c>
+      <c r="AK87" s="165"/>
+      <c r="AL87" s="163"/>
       <c r="AM87" s="171"/>
       <c r="AN87" s="160">
         <f>SUM(Table13[[#This Row],[1986]:[2021]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A88" s="167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A88" s="164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="163" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="163" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
+      <c r="AA88" s="40"/>
+      <c r="AB88" s="40"/>
+      <c r="AC88" s="40"/>
+      <c r="AD88" s="40"/>
+      <c r="AE88" s="80"/>
+      <c r="AF88" s="80"/>
+      <c r="AG88" s="40"/>
+      <c r="AH88" s="40"/>
+      <c r="AI88" s="40"/>
+      <c r="AJ88" s="40"/>
+      <c r="AK88" s="40"/>
+      <c r="AL88" s="159">
+        <v>1</v>
+      </c>
+      <c r="AM88" s="171"/>
+      <c r="AN88" s="160">
+        <f>SUM(Table13[[#This Row],[1986]:[2021]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A89" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="168"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="160">
-        <f t="shared" ref="E88:AN88" si="0">SUM(E2:E86)</f>
-        <v>1</v>
-      </c>
-      <c r="F88" s="160">
+      <c r="B89" s="168"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="170"/>
+      <c r="E89" s="160">
+        <f t="shared" ref="E89:AN89" si="0">SUM(E2:E87)</f>
+        <v>1</v>
+      </c>
+      <c r="F89" s="160">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G88" s="160">
+      <c r="G89" s="160">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H88" s="160">
+      <c r="H89" s="160">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I88" s="160">
+      <c r="I89" s="160">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J88" s="160">
+      <c r="J89" s="160">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K88" s="160">
+      <c r="K89" s="160">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L88" s="160">
+      <c r="L89" s="160">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M88" s="160">
+      <c r="M89" s="160">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N88" s="160">
+      <c r="N89" s="160">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O88" s="160">
+      <c r="O89" s="160">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P88" s="160">
+      <c r="P89" s="160">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Q88" s="160">
+      <c r="Q89" s="160">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="R88" s="160">
+      <c r="R89" s="160">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S88" s="160">
+      <c r="S89" s="160">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T88" s="160">
+      <c r="T89" s="160">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="U88" s="160">
+      <c r="U89" s="160">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="V88" s="160">
+      <c r="V89" s="160">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="W88" s="160">
+      <c r="W89" s="160">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X88" s="160">
+      <c r="X89" s="160">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Y88" s="160">
+      <c r="Y89" s="160">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Z88" s="160">
+      <c r="Z89" s="160">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AA88" s="160">
+      <c r="AA89" s="160">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AB88" s="160">
+      <c r="AB89" s="160">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AC88" s="160">
+      <c r="AC89" s="160">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AD88" s="160">
+        <v>21</v>
+      </c>
+      <c r="AD89" s="160">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AE88" s="160">
+      <c r="AE89" s="160">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="AF88" s="160">
+      <c r="AF89" s="160">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AG88" s="160">
+      <c r="AG89" s="160">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AH88" s="160">
+      <c r="AH89" s="160">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI88" s="160">
+      <c r="AI89" s="160">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AJ88" s="160">
+        <v>18</v>
+      </c>
+      <c r="AJ89" s="160">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AK88" s="160">
+      <c r="AK89" s="160">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AL88" s="160">
+      <c r="AL89" s="160">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AM88" s="160">
+      <c r="AM89" s="160">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AN88" s="160">
+        <v>10</v>
+      </c>
+      <c r="AN89" s="160">
         <f t="shared" si="0"/>
         <v>557</v>
       </c>
@@ -18651,2088 +18672,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="C7" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="200" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="198" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="201"/>
-      <c r="B10" s="199"/>
-      <c r="C10" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="195" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" s="26" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="200" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="198" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="C21" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="C22" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="26">
-        <v>1998</v>
-      </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="88" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90" t="s">
-        <v>233</v>
-      </c>
-      <c r="D29" s="90" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="195" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="196"/>
-      <c r="C31" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="E31" s="28"/>
-    </row>
-    <row r="32" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="196"/>
-      <c r="C32" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="26">
-        <v>2018</v>
-      </c>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
-      <c r="B33" s="197"/>
-      <c r="C33" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="193" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="D37" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="194"/>
-      <c r="B38" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="90" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="E39" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:L93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="2:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="203" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="8">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204"/>
-      <c r="C4" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="10">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="204"/>
-      <c r="C5" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="205"/>
-      <c r="C6" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="15">
-        <v>13</v>
-      </c>
-      <c r="F7" s="15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="204" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="10">
-        <v>13</v>
-      </c>
-      <c r="F8" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="204"/>
-      <c r="C9" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="206" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="17">
-        <v>18</v>
-      </c>
-      <c r="F10" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="207"/>
-      <c r="C11" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="13">
-        <v>7</v>
-      </c>
-      <c r="F11" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="207"/>
-      <c r="C12" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="208"/>
-      <c r="C13" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="203" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" s="8">
-        <v>3</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="204"/>
-      <c r="C15" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="8">
-        <v>34</v>
-      </c>
-      <c r="F15" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="204"/>
-      <c r="C16" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="10">
-        <v>5</v>
-      </c>
-      <c r="F16" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="205"/>
-      <c r="C17" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3</v>
-      </c>
-      <c r="F17" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="210" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="15">
-        <v>14</v>
-      </c>
-      <c r="F18" s="38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="211"/>
-      <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2016</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="204" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E20" s="10">
-        <v>14</v>
-      </c>
-      <c r="F20" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="204"/>
-      <c r="C21" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" s="10">
-        <v>25</v>
-      </c>
-      <c r="F21" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="204"/>
-      <c r="C22" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="10">
-        <v>6</v>
-      </c>
-      <c r="F22" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="204"/>
-      <c r="C23" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E23" s="10">
-        <v>5</v>
-      </c>
-      <c r="F23" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="206" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" s="17">
-        <v>7</v>
-      </c>
-      <c r="F24" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="207"/>
-      <c r="C25" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="E25" s="13">
-        <v>9</v>
-      </c>
-      <c r="F25" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="207"/>
-      <c r="C26" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="13">
-        <v>13</v>
-      </c>
-      <c r="F26" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="207"/>
-      <c r="C27" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E27" s="13">
-        <v>12</v>
-      </c>
-      <c r="F27" s="13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="207"/>
-      <c r="C28" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E28" s="13">
-        <v>6</v>
-      </c>
-      <c r="F28" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="207"/>
-      <c r="C29" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E29" s="13">
-        <v>6</v>
-      </c>
-      <c r="F29" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="208"/>
-      <c r="C30" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="21">
-        <v>2012</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" s="10">
-        <v>21</v>
-      </c>
-      <c r="F31" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="204"/>
-      <c r="C32" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E32" s="10">
-        <v>9</v>
-      </c>
-      <c r="F32" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="204"/>
-      <c r="C33" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E33" s="10">
-        <v>4</v>
-      </c>
-      <c r="F33" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="204"/>
-      <c r="C34" s="93" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="9">
-        <v>2011</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="212" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E35" s="17">
-        <v>2</v>
-      </c>
-      <c r="F35" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="212"/>
-      <c r="C36" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E36" s="17">
-        <v>21</v>
-      </c>
-      <c r="F36" s="17">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="212"/>
-      <c r="C37" s="98" t="s">
-        <v>293</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E37" s="13">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="212"/>
-      <c r="C38" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="E38" s="2">
-        <v>7</v>
-      </c>
-      <c r="F38" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="205" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" s="10">
-        <v>31</v>
-      </c>
-      <c r="F39" s="8">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="203"/>
-      <c r="C40" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="10">
-        <v>5</v>
-      </c>
-      <c r="F40" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="206" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E41" s="17">
-        <v>4</v>
-      </c>
-      <c r="F41" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="207"/>
-      <c r="C42" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E42" s="13">
-        <v>12</v>
-      </c>
-      <c r="F42" s="13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="207"/>
-      <c r="C43" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="13">
-        <v>2</v>
-      </c>
-      <c r="F43" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="207"/>
-      <c r="C44" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E44" s="13">
-        <v>2</v>
-      </c>
-      <c r="F44" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="208"/>
-      <c r="C45" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1</v>
-      </c>
-      <c r="F46" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="204"/>
-      <c r="C47" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="E47" s="10">
-        <v>2</v>
-      </c>
-      <c r="F47" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="204"/>
-      <c r="C48" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" s="10">
-        <v>3</v>
-      </c>
-      <c r="F48" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="205"/>
-      <c r="C49" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="46">
-        <v>2017</v>
-      </c>
-      <c r="E49" s="10">
-        <v>1</v>
-      </c>
-      <c r="F49" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="203" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="E50" s="10">
-        <v>21</v>
-      </c>
-      <c r="F50" s="37">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="204"/>
-      <c r="C51" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="46">
-        <v>2004</v>
-      </c>
-      <c r="E51" s="10">
-        <v>1</v>
-      </c>
-      <c r="F51" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="205"/>
-      <c r="C52" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="E52" s="12">
-        <v>2</v>
-      </c>
-      <c r="F52" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="207" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="96" t="s">
-        <v>309</v>
-      </c>
-      <c r="D53" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E53" s="13">
-        <v>1</v>
-      </c>
-      <c r="F53" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="207"/>
-      <c r="C54" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E54" s="13">
-        <v>1</v>
-      </c>
-      <c r="F54" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="207"/>
-      <c r="C55" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E55" s="13">
-        <v>5</v>
-      </c>
-      <c r="F55" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="203" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E56" s="8">
-        <v>26</v>
-      </c>
-      <c r="F56" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="204"/>
-      <c r="C57" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E57" s="10">
-        <v>27</v>
-      </c>
-      <c r="F57" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="205"/>
-      <c r="C58" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E58" s="12">
-        <v>3</v>
-      </c>
-      <c r="F58" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="206" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E59" s="17">
-        <v>17</v>
-      </c>
-      <c r="F59" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="207"/>
-      <c r="C60" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E60" s="13">
-        <v>11</v>
-      </c>
-      <c r="F60" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="207"/>
-      <c r="C61" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E61" s="13">
-        <v>18</v>
-      </c>
-      <c r="F61" s="13">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="207"/>
-      <c r="C62" s="98" t="s">
-        <v>318</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E62" s="13">
-        <v>11</v>
-      </c>
-      <c r="F62" s="13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="207"/>
-      <c r="C63" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E63" s="13">
-        <v>5</v>
-      </c>
-      <c r="F63" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="207"/>
-      <c r="C64" s="98" t="s">
-        <v>322</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E64" s="13">
-        <v>8</v>
-      </c>
-      <c r="F64" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="208"/>
-      <c r="C65" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E65" s="2">
-        <v>3</v>
-      </c>
-      <c r="F65" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="203" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E66" s="10">
-        <v>3</v>
-      </c>
-      <c r="F66" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="204"/>
-      <c r="C67" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E67" s="10">
-        <v>7</v>
-      </c>
-      <c r="F67" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="204"/>
-      <c r="C68" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E68" s="10">
-        <v>3</v>
-      </c>
-      <c r="F68" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="205"/>
-      <c r="C69" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E69" s="10">
-        <v>2</v>
-      </c>
-      <c r="F69" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="206" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="17">
-        <v>19</v>
-      </c>
-      <c r="F70" s="17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="207"/>
-      <c r="C71" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E71" s="13">
-        <v>8</v>
-      </c>
-      <c r="F71" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="207"/>
-      <c r="C72" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E72" s="13">
-        <v>5</v>
-      </c>
-      <c r="F72" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="207"/>
-      <c r="C73" s="98" t="s">
-        <v>334</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E73" s="13">
-        <v>3</v>
-      </c>
-      <c r="F73" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="208"/>
-      <c r="C74" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="E74" s="2">
-        <v>3</v>
-      </c>
-      <c r="F74" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="205" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="E75" s="10">
-        <v>14</v>
-      </c>
-      <c r="F75" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="209"/>
-      <c r="C76" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E76" s="10">
-        <v>2</v>
-      </c>
-      <c r="F76" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="203"/>
-      <c r="C77" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="9">
-        <v>2018</v>
-      </c>
-      <c r="E77" s="10">
-        <v>1</v>
-      </c>
-      <c r="F77" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="203"/>
-      <c r="C78" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E78" s="10">
-        <v>17</v>
-      </c>
-      <c r="F78" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="206" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="E79" s="17">
-        <v>24</v>
-      </c>
-      <c r="F79" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="207"/>
-      <c r="C80" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E80" s="13">
-        <v>6</v>
-      </c>
-      <c r="F80" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="207"/>
-      <c r="C81" s="98" t="s">
-        <v>342</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E81" s="13">
-        <v>3</v>
-      </c>
-      <c r="F81" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="208"/>
-      <c r="C82" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="E82" s="2">
-        <v>11</v>
-      </c>
-      <c r="F82" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="204" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E83" s="37">
-        <v>28</v>
-      </c>
-      <c r="F83" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="204"/>
-      <c r="C84" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E84" s="37">
-        <v>2</v>
-      </c>
-      <c r="F84" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="210" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E85" s="15">
-        <v>3</v>
-      </c>
-      <c r="F85" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="211"/>
-      <c r="C86" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2017</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="204" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E87" s="10">
-        <v>21</v>
-      </c>
-      <c r="F87" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="204"/>
-      <c r="C88" s="97" t="s">
-        <v>349</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E88" s="10">
-        <v>2</v>
-      </c>
-      <c r="F88" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="204"/>
-      <c r="C89" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E89" s="10">
-        <v>2</v>
-      </c>
-      <c r="F89" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="204"/>
-      <c r="C90" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E90" s="10">
-        <v>3</v>
-      </c>
-      <c r="F90" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="E91" s="15">
-        <v>31</v>
-      </c>
-      <c r="F91" s="15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="209" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="E92" s="12">
-        <v>36</v>
-      </c>
-      <c r="F92" s="12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="209"/>
-      <c r="C93" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E93" s="12">
-        <v>5</v>
-      </c>
-      <c r="F93" s="12">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B39:B40"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2CF519-9585-4EA6-8BEA-E1E089CD8A6E}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="67" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="100" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="100" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" style="72" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" style="100" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="100" customWidth="1"/>
     <col min="8" max="8" width="28" style="100" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="100" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" style="101" customWidth="1"/>
-    <col min="11" max="12" width="18.42578125" style="100" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" style="100" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="100" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" style="100" customWidth="1"/>
-    <col min="17" max="18" width="6.42578125" style="100" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="100" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="100" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.42578125" style="100" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" style="100" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" style="100" customWidth="1"/>
-    <col min="27" max="27" width="3.42578125" style="100" customWidth="1"/>
-    <col min="28" max="28" width="4.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.7109375" style="100" customWidth="1"/>
-    <col min="30" max="30" width="6.42578125" style="100" customWidth="1"/>
-    <col min="31" max="31" width="4.42578125" style="100" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" style="100" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="100" customWidth="1"/>
+    <col min="10" max="10" width="34.7265625" style="101" customWidth="1"/>
+    <col min="11" max="12" width="18.453125" style="100" customWidth="1"/>
+    <col min="13" max="13" width="34.7265625" style="100" customWidth="1"/>
+    <col min="14" max="14" width="18.453125" style="100" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.453125" style="100" customWidth="1"/>
+    <col min="16" max="16" width="5.26953125" style="100" customWidth="1"/>
+    <col min="17" max="18" width="6.453125" style="100" customWidth="1"/>
+    <col min="19" max="19" width="4.453125" style="100" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="100" customWidth="1"/>
+    <col min="21" max="21" width="5.7265625" style="100" customWidth="1"/>
+    <col min="22" max="22" width="4.453125" style="100" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.453125" style="100" customWidth="1"/>
+    <col min="24" max="24" width="4.453125" style="100" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.453125" style="100" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" style="100" customWidth="1"/>
+    <col min="27" max="27" width="3.453125" style="100" customWidth="1"/>
+    <col min="28" max="28" width="4.453125" style="100" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7265625" style="100" customWidth="1"/>
+    <col min="30" max="30" width="6.453125" style="100" customWidth="1"/>
+    <col min="31" max="31" width="4.453125" style="100" customWidth="1"/>
+    <col min="32" max="32" width="13.7265625" style="100" customWidth="1"/>
     <col min="33" max="33" width="39" style="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="140" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="140" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="143"/>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -20766,7 +18749,7 @@
       <c r="AF1" s="141"/>
       <c r="AG1" s="141"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="137"/>
       <c r="B2" s="139"/>
       <c r="C2" s="139"/>
@@ -20809,35 +18792,35 @@
       <c r="AF2" s="133"/>
       <c r="AG2" s="132"/>
     </row>
-    <row r="3" spans="1:33" s="130" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+    <row r="3" spans="1:33" s="130" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+      <c r="A3" s="198" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="220" t="s">
+      <c r="C3" s="200" t="s">
         <v>360</v>
       </c>
       <c r="D3" s="131" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="220" t="s">
+      <c r="E3" s="200" t="s">
         <v>362</v>
       </c>
-      <c r="F3" s="222" t="s">
+      <c r="F3" s="202" t="s">
         <v>363</v>
       </c>
-      <c r="G3" s="224" t="s">
+      <c r="G3" s="204" t="s">
         <v>364</v>
       </c>
-      <c r="H3" s="222" t="s">
+      <c r="H3" s="202" t="s">
         <v>365</v>
       </c>
-      <c r="I3" s="222" t="s">
+      <c r="I3" s="202" t="s">
         <v>366</v>
       </c>
-      <c r="J3" s="222"/>
+      <c r="J3" s="202"/>
       <c r="K3" s="128" t="s">
         <v>367</v>
       </c>
@@ -20850,57 +18833,57 @@
       <c r="N3" s="127" t="s">
         <v>370</v>
       </c>
-      <c r="O3" s="215" t="s">
+      <c r="O3" s="195" t="s">
         <v>371</v>
       </c>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215" t="s">
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195" t="s">
         <v>372</v>
       </c>
-      <c r="R3" s="215"/>
-      <c r="S3" s="215" t="s">
+      <c r="R3" s="195"/>
+      <c r="S3" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="T3" s="215"/>
-      <c r="U3" s="214" t="s">
+      <c r="T3" s="195"/>
+      <c r="U3" s="194" t="s">
         <v>374</v>
       </c>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214" t="s">
+      <c r="V3" s="194"/>
+      <c r="W3" s="194" t="s">
         <v>375</v>
       </c>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214" t="s">
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194" t="s">
         <v>376</v>
       </c>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="214" t="s">
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="194" t="s">
         <v>377</v>
       </c>
-      <c r="AB3" s="214"/>
-      <c r="AC3" s="214" t="s">
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="194" t="s">
         <v>378</v>
       </c>
-      <c r="AD3" s="214"/>
-      <c r="AE3" s="216" t="s">
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="196" t="s">
         <v>379</v>
       </c>
-      <c r="AF3" s="217"/>
+      <c r="AF3" s="197"/>
       <c r="AG3" s="125" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="124" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="219"/>
-      <c r="B4" s="219"/>
-      <c r="C4" s="221"/>
+    <row r="4" spans="1:33" s="124" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="199"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="201"/>
       <c r="D4" s="129"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
       <c r="K4" s="128"/>
       <c r="L4" s="128"/>
       <c r="M4" s="128"/>
@@ -20961,7 +18944,7 @@
       </c>
       <c r="AG4" s="125"/>
     </row>
-    <row r="5" spans="1:33" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="113" t="s">
         <v>38</v>
       </c>
@@ -21030,7 +19013,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="72" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="72" customFormat="1" ht="78" x14ac:dyDescent="0.35">
       <c r="A6" s="113" t="s">
         <v>8</v>
       </c>
@@ -21093,7 +19076,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="72" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="72" customFormat="1" ht="120" x14ac:dyDescent="0.35">
       <c r="A7" s="113" t="s">
         <v>83</v>
       </c>
@@ -21156,7 +19139,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="74" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="74" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="113" t="s">
         <v>86</v>
       </c>
@@ -21228,7 +19211,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="72" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="110" t="s">
         <v>58</v>
       </c>
@@ -21271,7 +19254,7 @@
       <c r="AF9" s="68"/>
       <c r="AG9" s="68"/>
     </row>
-    <row r="10" spans="1:33" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="73" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="122" t="s">
         <v>43</v>
       </c>
@@ -21328,7 +19311,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="72" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="72" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A11" s="110" t="s">
         <v>28</v>
       </c>
@@ -21379,7 +19362,7 @@
       <c r="AF11" s="68"/>
       <c r="AG11" s="68"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="113" t="s">
         <v>53</v>
       </c>
@@ -21448,7 +19431,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="74" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="74" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="113" t="s">
         <v>85</v>
       </c>
@@ -21507,7 +19490,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="110" t="s">
         <v>48</v>
       </c>
@@ -21552,7 +19535,7 @@
       <c r="AF14" s="108"/>
       <c r="AG14" s="108"/>
     </row>
-    <row r="15" spans="1:33" s="72" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="72" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A15" s="113" t="s">
         <v>22</v>
       </c>
@@ -21613,7 +19596,7 @@
       </c>
       <c r="AG15" s="68"/>
     </row>
-    <row r="16" spans="1:33" s="74" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="74" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="114" t="s">
         <v>170</v>
       </c>
@@ -21660,7 +19643,7 @@
       <c r="AF16" s="75"/>
       <c r="AG16" s="75"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="110" t="s">
         <v>73</v>
       </c>
@@ -21701,7 +19684,7 @@
       <c r="AF17" s="108"/>
       <c r="AG17" s="108"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="110" t="s">
         <v>76</v>
       </c>
@@ -21742,7 +19725,7 @@
       <c r="AF18" s="108"/>
       <c r="AG18" s="108"/>
     </row>
-    <row r="19" spans="1:33" ht="51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="52" x14ac:dyDescent="0.35">
       <c r="A19" s="113" t="s">
         <v>79</v>
       </c>
@@ -21805,7 +19788,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="110" t="s">
         <v>89</v>
       </c>
@@ -21842,7 +19825,7 @@
       <c r="AF20" s="108"/>
       <c r="AG20" s="108"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="109" t="s">
         <v>87</v>
       </c>
@@ -21885,7 +19868,7 @@
       <c r="AF21" s="108"/>
       <c r="AG21" s="108"/>
     </row>
-    <row r="22" spans="1:33" s="72" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="72" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="107" t="s">
         <v>63</v>
       </c>
@@ -21956,7 +19939,7 @@
       <c r="AF22" s="68"/>
       <c r="AG22" s="68"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="70" t="s">
         <v>449</v>
       </c>
@@ -21970,7 +19953,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="70" t="s">
         <v>452</v>
       </c>
@@ -21984,40 +19967,40 @@
       <c r="E25" s="104" t="s">
         <v>454</v>
       </c>
-      <c r="I25" s="213"/>
+      <c r="I25" s="193"/>
       <c r="J25" s="57"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D26" s="104" t="s">
         <v>453</v>
       </c>
       <c r="E26" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="I26" s="213"/>
+      <c r="I26" s="193"/>
       <c r="J26" s="57"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D27" s="104" t="s">
         <v>456</v>
       </c>
       <c r="E27" s="104" t="s">
         <v>457</v>
       </c>
-      <c r="I27" s="213"/>
+      <c r="I27" s="193"/>
       <c r="J27" s="57"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D28" s="104" t="s">
         <v>456</v>
       </c>
       <c r="E28" s="104" t="s">
         <v>458</v>
       </c>
-      <c r="I28" s="213"/>
+      <c r="I28" s="193"/>
       <c r="J28" s="57"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D29" s="104" t="s">
         <v>456</v>
       </c>
@@ -22025,12 +20008,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B31" s="102" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="72">
         <f>16*3/3</f>
         <v>16</v>
@@ -22073,45 +20056,2045 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c84b764c-50f3-4666-981f-a21c15460b9f">
-      <UserInfo>
-        <DisplayName>Sanchez Avalos, Roberto</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Maria Reyes Retana Torre</DisplayName>
-        <AccountId>546</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Natalia Tosi</DisplayName>
-        <AccountId>929</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Oliveri, Maria Laura</DisplayName>
-        <AccountId>1153</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eric Torres</DisplayName>
-        <AccountId>474</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c41eb0e2-a8ee-4193-9a69-ff6e1e787a8f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cdc7663a-08f0-4737-9e8c-148ce897a09c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="42.26953125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="92"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="C7" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="92"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" s="26" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="213" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="211" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="214"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="208" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="92"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" s="26" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="213" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="211" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="214"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="C21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="92"/>
+      <c r="C22" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1998</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="92"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="92"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="208" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="27"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="27"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="26">
+        <v>2018</v>
+      </c>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="92"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="206" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="207"/>
+      <c r="B38" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="E39" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:L93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="215" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.35">
+      <c r="B2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+    </row>
+    <row r="3" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="8">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="217"/>
+      <c r="C4" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="10">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="217"/>
+      <c r="C5" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="218"/>
+      <c r="C6" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="15">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="217" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="10">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="217"/>
+      <c r="C9" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="17">
+        <v>18</v>
+      </c>
+      <c r="F10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="220"/>
+      <c r="C11" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="13">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="220"/>
+      <c r="C12" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="221"/>
+      <c r="C13" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="216" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="217"/>
+      <c r="C15" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="8">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="217"/>
+      <c r="C16" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="218"/>
+      <c r="C17" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="223" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="15">
+        <v>14</v>
+      </c>
+      <c r="F18" s="38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="224"/>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="217" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="10">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="217"/>
+      <c r="C21" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="10">
+        <v>25</v>
+      </c>
+      <c r="F21" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="217"/>
+      <c r="C22" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6</v>
+      </c>
+      <c r="F22" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="217"/>
+      <c r="C23" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="10">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="219" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="17">
+        <v>7</v>
+      </c>
+      <c r="F24" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="220"/>
+      <c r="C25" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="13">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="220"/>
+      <c r="C26" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="13">
+        <v>13</v>
+      </c>
+      <c r="F26" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="220"/>
+      <c r="C27" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27" s="13">
+        <v>12</v>
+      </c>
+      <c r="F27" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="220"/>
+      <c r="C28" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="13">
+        <v>6</v>
+      </c>
+      <c r="F28" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="220"/>
+      <c r="C29" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="13">
+        <v>6</v>
+      </c>
+      <c r="F29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="221"/>
+      <c r="C30" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="21">
+        <v>2012</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="217" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="10">
+        <v>21</v>
+      </c>
+      <c r="F31" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="217"/>
+      <c r="C32" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="10">
+        <v>9</v>
+      </c>
+      <c r="F32" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="217"/>
+      <c r="C33" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4</v>
+      </c>
+      <c r="F33" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="217"/>
+      <c r="C34" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2011</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="225" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="17">
+        <v>2</v>
+      </c>
+      <c r="F35" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="225"/>
+      <c r="C36" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="17">
+        <v>21</v>
+      </c>
+      <c r="F36" s="17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="225"/>
+      <c r="C37" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2005</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="225"/>
+      <c r="C38" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="218" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="10">
+        <v>31</v>
+      </c>
+      <c r="F39" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="216"/>
+      <c r="C40" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="10">
+        <v>5</v>
+      </c>
+      <c r="F40" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="219" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="17">
+        <v>4</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="220"/>
+      <c r="C42" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" s="13">
+        <v>12</v>
+      </c>
+      <c r="F42" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="220"/>
+      <c r="C43" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2</v>
+      </c>
+      <c r="F43" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="220"/>
+      <c r="C44" s="98" t="s">
+        <v>300</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2</v>
+      </c>
+      <c r="F44" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="221"/>
+      <c r="C45" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="216" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="217"/>
+      <c r="C47" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="10">
+        <v>2</v>
+      </c>
+      <c r="F47" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="217"/>
+      <c r="C48" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" s="10">
+        <v>3</v>
+      </c>
+      <c r="F48" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="218"/>
+      <c r="C49" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="46">
+        <v>2017</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="216" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="10">
+        <v>21</v>
+      </c>
+      <c r="F50" s="37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="217"/>
+      <c r="C51" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="46">
+        <v>2004</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+      <c r="F51" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="218"/>
+      <c r="C52" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E52" s="12">
+        <v>2</v>
+      </c>
+      <c r="F52" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="220" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="220"/>
+      <c r="C54" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="220"/>
+      <c r="C55" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="13">
+        <v>5</v>
+      </c>
+      <c r="F55" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="216" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E56" s="8">
+        <v>26</v>
+      </c>
+      <c r="F56" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="217"/>
+      <c r="C57" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E57" s="10">
+        <v>27</v>
+      </c>
+      <c r="F57" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="218"/>
+      <c r="C58" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E58" s="12">
+        <v>3</v>
+      </c>
+      <c r="F58" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="219" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59" s="17">
+        <v>17</v>
+      </c>
+      <c r="F59" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="220"/>
+      <c r="C60" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" s="13">
+        <v>11</v>
+      </c>
+      <c r="F60" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="220"/>
+      <c r="C61" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E61" s="13">
+        <v>18</v>
+      </c>
+      <c r="F61" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="220"/>
+      <c r="C62" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E62" s="13">
+        <v>11</v>
+      </c>
+      <c r="F62" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="220"/>
+      <c r="C63" s="98" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E63" s="13">
+        <v>5</v>
+      </c>
+      <c r="F63" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="220"/>
+      <c r="C64" s="98" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E64" s="13">
+        <v>8</v>
+      </c>
+      <c r="F64" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="221"/>
+      <c r="C65" s="98" t="s">
+        <v>324</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="216" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" s="10">
+        <v>3</v>
+      </c>
+      <c r="F66" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="217"/>
+      <c r="C67" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E67" s="10">
+        <v>7</v>
+      </c>
+      <c r="F67" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="217"/>
+      <c r="C68" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E68" s="10">
+        <v>3</v>
+      </c>
+      <c r="F68" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="218"/>
+      <c r="C69" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="10">
+        <v>2</v>
+      </c>
+      <c r="F69" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="219" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E70" s="17">
+        <v>19</v>
+      </c>
+      <c r="F70" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="220"/>
+      <c r="C71" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" s="13">
+        <v>8</v>
+      </c>
+      <c r="F71" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="220"/>
+      <c r="C72" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="13">
+        <v>5</v>
+      </c>
+      <c r="F72" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="220"/>
+      <c r="C73" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E73" s="13">
+        <v>3</v>
+      </c>
+      <c r="F73" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="221"/>
+      <c r="C74" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="218" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E75" s="10">
+        <v>14</v>
+      </c>
+      <c r="F75" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="222"/>
+      <c r="C76" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E76" s="10">
+        <v>2</v>
+      </c>
+      <c r="F76" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="216"/>
+      <c r="C77" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E77" s="10">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="216"/>
+      <c r="C78" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E78" s="10">
+        <v>17</v>
+      </c>
+      <c r="F78" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="219" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E79" s="17">
+        <v>24</v>
+      </c>
+      <c r="F79" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="220"/>
+      <c r="C80" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E80" s="13">
+        <v>6</v>
+      </c>
+      <c r="F80" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="220"/>
+      <c r="C81" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E81" s="13">
+        <v>3</v>
+      </c>
+      <c r="F81" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="221"/>
+      <c r="C82" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E82" s="2">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="217" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" s="37">
+        <v>28</v>
+      </c>
+      <c r="F83" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="217"/>
+      <c r="C84" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" s="37">
+        <v>2</v>
+      </c>
+      <c r="F84" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="223" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E85" s="15">
+        <v>3</v>
+      </c>
+      <c r="F85" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="224"/>
+      <c r="C86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="217" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E87" s="10">
+        <v>21</v>
+      </c>
+      <c r="F87" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="217"/>
+      <c r="C88" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E88" s="10">
+        <v>2</v>
+      </c>
+      <c r="F88" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="217"/>
+      <c r="C89" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E89" s="10">
+        <v>2</v>
+      </c>
+      <c r="F89" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="217"/>
+      <c r="C90" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E90" s="10">
+        <v>3</v>
+      </c>
+      <c r="F90" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E91" s="15">
+        <v>31</v>
+      </c>
+      <c r="F91" s="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="222" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E92" s="12">
+        <v>36</v>
+      </c>
+      <c r="F92" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="222"/>
+      <c r="C93" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E93" s="12">
+        <v>5</v>
+      </c>
+      <c r="F93" s="12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B39:B40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100498A226200FBA747BF499A3F16BD9306" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a802e24b83766cc1d8af855be1bd7937">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c41eb0e2-a8ee-4193-9a69-ff6e1e787a8f" xmlns:ns3="c84b764c-50f3-4666-981f-a21c15460b9f" xmlns:ns4="cdc7663a-08f0-4737-9e8c-148ce897a09c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e8a154215ca5c893126bc8f6b108500" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c41eb0e2-a8ee-4193-9a69-ff6e1e787a8f"/>
@@ -22359,7 +22342,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -22368,19 +22351,45 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283029C9-A5AB-4AAC-9B8A-368CAB8C733A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c84b764c-50f3-4666-981f-a21c15460b9f"/>
-    <ds:schemaRef ds:uri="c41eb0e2-a8ee-4193-9a69-ff6e1e787a8f"/>
-    <ds:schemaRef ds:uri="cdc7663a-08f0-4737-9e8c-148ce897a09c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c84b764c-50f3-4666-981f-a21c15460b9f">
+      <UserInfo>
+        <DisplayName>Sanchez Avalos, Roberto</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Maria Reyes Retana Torre</DisplayName>
+        <AccountId>546</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Natalia Tosi</DisplayName>
+        <AccountId>929</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Oliveri, Maria Laura</DisplayName>
+        <AccountId>1153</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eric Torres</DisplayName>
+        <AccountId>474</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c41eb0e2-a8ee-4193-9a69-ff6e1e787a8f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cdc7663a-08f0-4737-9e8c-148ce897a09c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8D9694B-F156-44C8-A40A-23B2416BDA15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22400,10 +22409,22 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5341BEEE-99C0-4ED9-8E19-6F685D668845}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283029C9-A5AB-4AAC-9B8A-368CAB8C733A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c84b764c-50f3-4666-981f-a21c15460b9f"/>
+    <ds:schemaRef ds:uri="c41eb0e2-a8ee-4193-9a69-ff6e1e787a8f"/>
+    <ds:schemaRef ds:uri="cdc7663a-08f0-4737-9e8c-148ce897a09c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>